--- a/medicine/Psychotrope/Midleton_(distillerie)/Midleton_(distillerie).xlsx
+++ b/medicine/Psychotrope/Midleton_(distillerie)/Midleton_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 The Midleton distilleries complex est une distillerie située dans la ville de Midleton dans le Comté de Cork en Irlande. C'est la plus grande distillerie d'Irlande. On y produit de nombreux alcools, mais sa principale production est celle de whiskey.
@@ -514,7 +526,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Midleton est une des distilleries les plus modernes au monde. Sa capacité de production s’élève à près de 19 millions de litres d’alcool par an. Il y a 13 alambics qui produisent en les combinant de façon différente tous les types de whiskeys irlandais.
 </t>
@@ -545,7 +559,9 @@
           <t>La gamme de whiskey</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jameson – Le whiskey irlandais le plus vendu dans le monde
 Powers (whiskey) – Le whiskey le plus vendu en Irlande
@@ -585,7 +601,9 @@
           <t>Les autres productions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cork Dry Gin
 Huzzar Vodka</t>
@@ -616,7 +634,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jim Murray, Classic Irish Whiskey, éd. PRION, Londres 1997. (en)</t>
         </is>
